--- a/Doc/sprints/02/CRC.xlsx
+++ b/Doc/sprints/02/CRC.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ocorrencia\Doc\sprints\02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Vitima</t>
   </si>
@@ -112,13 +117,28 @@
   </si>
   <si>
     <t>Graduacao</t>
+  </si>
+  <si>
+    <t>listar crimes</t>
+  </si>
+  <si>
+    <t>adiciona outros crimes</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>adiciona crimes específicos</t>
+  </si>
+  <si>
+    <t>CrimeEspecífico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,22 +192,30 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +294,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +329,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -475,238 +505,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:C43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="17.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="1" t="s">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="3" t="s">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="3" t="s">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="3" t="s">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1" t="s">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="3" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="2" t="s">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="1" t="s">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="2" t="s">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="2" t="s">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="2" t="s">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="4"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="1" t="s">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="3" t="s">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="4"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="1" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="3" t="s">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="2" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -714,24 +771,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
